--- a/running time.xlsx
+++ b/running time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garyge/Desktop/network/network_hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A3154B-8B8B-8848-97DA-9DD6BB5F22BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D03E2-605D-0542-81B1-12442B8CC658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{4572D6E4-24F6-5D4E-97EA-D7DCDD697C82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{4572D6E4-24F6-5D4E-97EA-D7DCDD697C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type of Graph</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Complete graph 1</t>
+  </si>
+  <si>
+    <t>Complete graph 2</t>
+  </si>
+  <si>
+    <t>﻿0.007</t>
+  </si>
+  <si>
+    <t>﻿0.011</t>
+  </si>
+  <si>
+    <t>barbell graph 2</t>
+  </si>
+  <si>
+    <t>cycle graph 2</t>
+  </si>
+  <si>
+    <t>cycle graph 1</t>
+  </si>
+  <si>
+    <t>star graph 1</t>
+  </si>
+  <si>
+    <t>star graph 2</t>
+  </si>
+  <si>
+    <t>barbell graph 1</t>
   </si>
 </sst>
 </file>
@@ -75,8 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,17 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E1CEDF-A868-FF4A-9C1C-8E1AD4F35576}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -412,15 +446,826 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>0.115</v>
+      </c>
+      <c r="D4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>0.159</v>
+      </c>
+      <c r="D5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>1E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7">
+        <v>0.378</v>
+      </c>
+      <c r="D7">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>700</v>
+      </c>
+      <c r="C8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>800</v>
+      </c>
+      <c r="C9">
+        <v>0.497</v>
+      </c>
+      <c r="D9">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>400</v>
+      </c>
+      <c r="C15">
+        <v>1E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <v>1E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>600</v>
+      </c>
+      <c r="C17">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>700</v>
+      </c>
+      <c r="C18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>800</v>
+      </c>
+      <c r="C19">
+        <v>0.54</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>900</v>
+      </c>
+      <c r="C20">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>300</v>
+      </c>
+      <c r="C25">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>600</v>
+      </c>
+      <c r="C28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>700</v>
+      </c>
+      <c r="C29">
+        <v>0.317</v>
+      </c>
+      <c r="D29">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>800</v>
+      </c>
+      <c r="C30">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>900</v>
+      </c>
+      <c r="C31">
+        <v>0.182</v>
+      </c>
+      <c r="D31">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>200</v>
+      </c>
+      <c r="C34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>500</v>
+      </c>
+      <c r="C37">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>600</v>
+      </c>
+      <c r="C38">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>700</v>
+      </c>
+      <c r="C39">
+        <v>2E-3</v>
+      </c>
+      <c r="D39">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>800</v>
+      </c>
+      <c r="C40">
+        <v>0.106</v>
+      </c>
+      <c r="D40">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>900</v>
+      </c>
+      <c r="C41">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D41">
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>300</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>400</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>500</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>600</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>700</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>800</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>900</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>300</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>400</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>500</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>600</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>700</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>800</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>900</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>200</v>
+      </c>
+      <c r="C66">
+        <v>1E-3</v>
+      </c>
+      <c r="D66">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>300</v>
+      </c>
+      <c r="C67">
+        <v>1E-3</v>
+      </c>
+      <c r="D67">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>400</v>
+      </c>
+      <c r="C68">
+        <v>1E-3</v>
+      </c>
+      <c r="D68">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>2E-3</v>
+      </c>
+      <c r="D69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>600</v>
+      </c>
+      <c r="C70">
+        <v>2E-3</v>
+      </c>
+      <c r="D70">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>700</v>
+      </c>
+      <c r="C71">
+        <v>2E-3</v>
+      </c>
+      <c r="D71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>800</v>
+      </c>
+      <c r="C72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>900</v>
+      </c>
+      <c r="C73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1E-3</v>
+      </c>
+      <c r="D75">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>200</v>
+      </c>
+      <c r="C76">
+        <v>1E-3</v>
+      </c>
+      <c r="D76">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77">
+        <v>2E-3</v>
+      </c>
+      <c r="D77">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>400</v>
+      </c>
+      <c r="C78">
+        <v>1E-3</v>
+      </c>
+      <c r="D78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>500</v>
+      </c>
+      <c r="C79">
+        <v>2E-3</v>
+      </c>
+      <c r="D79">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>600</v>
+      </c>
+      <c r="C80">
+        <v>1E-3</v>
+      </c>
+      <c r="D80">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>700</v>
+      </c>
+      <c r="C81">
+        <v>2E-3</v>
+      </c>
+      <c r="D81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>800</v>
+      </c>
+      <c r="C82">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>900</v>
+      </c>
+      <c r="C83">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D83">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
